--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,48 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>aloo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
